--- a/tests/data/borehole/wells-database-small.xlsx
+++ b/tests/data/borehole/wells-database-small.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20396"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Simon\Documents\git\subsurface\tests\data\borehole\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jan67814\Documents\git\subsurface\tests\data\borehole\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20547FCA-8835-475A-8F42-EFF857248F3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34A470F0-9A23-4112-9D3B-454560C224E1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="survey" sheetId="2" r:id="rId2"/>
     <sheet name="geology" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -154,7 +154,7 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -170,7 +170,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -472,14 +472,14 @@
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
     <col min="2" max="5" width="13" style="1" customWidth="1"/>
-    <col min="6" max="1025" width="10.5703125" customWidth="1"/>
+    <col min="6" max="1025" width="10.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -496,7 +496,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -513,7 +513,7 @@
         <v>58.83</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -530,7 +530,7 @@
         <v>69.8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -547,7 +547,7 @@
         <v>119.79</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -564,7 +564,7 @@
         <v>71.02</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -581,7 +581,7 @@
         <v>185.32</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -598,7 +598,7 @@
         <v>67.06</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -615,7 +615,7 @@
         <v>60.96</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -632,7 +632,7 @@
         <v>152.4</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -649,7 +649,7 @@
         <v>153.01</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -677,16 +677,16 @@
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="D2" sqref="D2:D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="4" width="13" customWidth="1"/>
-    <col min="5" max="1025" width="10.5703125" customWidth="1"/>
+    <col min="5" max="1025" width="10.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -700,7 +700,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -711,10 +711,10 @@
         <v>140</v>
       </c>
       <c r="D2">
-        <v>-50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -725,10 +725,10 @@
         <v>140</v>
       </c>
       <c r="D3">
-        <v>-50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -739,10 +739,10 @@
         <v>140</v>
       </c>
       <c r="D4">
-        <v>-50</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -753,10 +753,10 @@
         <v>140</v>
       </c>
       <c r="D5">
-        <v>-50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -767,10 +767,10 @@
         <v>140</v>
       </c>
       <c r="D6">
-        <v>-50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -781,10 +781,10 @@
         <v>140</v>
       </c>
       <c r="D7">
-        <v>-50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -795,10 +795,10 @@
         <v>140</v>
       </c>
       <c r="D8">
-        <v>-50</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -809,10 +809,10 @@
         <v>140</v>
       </c>
       <c r="D9">
-        <v>-50</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -823,10 +823,10 @@
         <v>140</v>
       </c>
       <c r="D10">
-        <v>-60</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -837,10 +837,10 @@
         <v>140</v>
       </c>
       <c r="D11">
-        <v>-60</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -851,10 +851,10 @@
         <v>140</v>
       </c>
       <c r="D12">
-        <v>-60</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -865,10 +865,10 @@
         <v>140</v>
       </c>
       <c r="D13">
-        <v>-60</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -879,10 +879,10 @@
         <v>140</v>
       </c>
       <c r="D14">
-        <v>-50</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>10</v>
       </c>
@@ -893,10 +893,10 @@
         <v>140</v>
       </c>
       <c r="D15">
-        <v>-50</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>11</v>
       </c>
@@ -907,10 +907,10 @@
         <v>140</v>
       </c>
       <c r="D16">
-        <v>-50</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>11</v>
       </c>
@@ -921,10 +921,10 @@
         <v>140</v>
       </c>
       <c r="D17">
-        <v>-50</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>12</v>
       </c>
@@ -935,10 +935,10 @@
         <v>140</v>
       </c>
       <c r="D18">
-        <v>-50</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>12</v>
       </c>
@@ -949,10 +949,10 @@
         <v>140</v>
       </c>
       <c r="D19">
-        <v>-48</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>13</v>
       </c>
@@ -963,10 +963,10 @@
         <v>140</v>
       </c>
       <c r="D20">
-        <v>-50</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>13</v>
       </c>
@@ -977,10 +977,10 @@
         <v>140</v>
       </c>
       <c r="D21">
-        <v>-50</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>14</v>
       </c>
@@ -991,10 +991,10 @@
         <v>140</v>
       </c>
       <c r="D22">
-        <v>-60</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>14</v>
       </c>
@@ -1005,7 +1005,7 @@
         <v>140</v>
       </c>
       <c r="D23">
-        <v>-60</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1022,12 +1022,12 @@
       <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1025" width="10.5703125" customWidth="1"/>
+    <col min="1" max="1025" width="10.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1041,7 +1041,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -1055,7 +1055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -1069,7 +1069,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -1083,7 +1083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>23</v>
       </c>
@@ -1097,7 +1097,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -1111,7 +1111,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -1125,7 +1125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -1139,7 +1139,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -1153,7 +1153,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -1167,7 +1167,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>24</v>
       </c>
@@ -1181,7 +1181,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>25</v>
       </c>
@@ -1195,7 +1195,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>26</v>
       </c>
@@ -1209,7 +1209,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -1223,7 +1223,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>27</v>
       </c>
@@ -1237,7 +1237,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -1251,7 +1251,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>27</v>
       </c>
@@ -1265,7 +1265,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>27</v>
       </c>
@@ -1279,7 +1279,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>28</v>
       </c>
@@ -1293,7 +1293,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>14</v>
       </c>

--- a/tests/data/borehole/wells-database-small.xlsx
+++ b/tests/data/borehole/wells-database-small.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20396"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jan67814\Documents\git\subsurface\tests\data\borehole\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Simon\Documents\git\subsurface\tests\data\borehole\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34A470F0-9A23-4112-9D3B-454560C224E1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20547FCA-8835-475A-8F42-EFF857248F3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="survey" sheetId="2" r:id="rId2"/>
     <sheet name="geology" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -154,7 +154,7 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -170,7 +170,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -472,14 +472,14 @@
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
     <col min="2" max="5" width="13" style="1" customWidth="1"/>
-    <col min="6" max="1025" width="10.54296875" customWidth="1"/>
+    <col min="6" max="1025" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -496,7 +496,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -513,7 +513,7 @@
         <v>58.83</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -530,7 +530,7 @@
         <v>69.8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -547,7 +547,7 @@
         <v>119.79</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -564,7 +564,7 @@
         <v>71.02</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -581,7 +581,7 @@
         <v>185.32</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -598,7 +598,7 @@
         <v>67.06</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -615,7 +615,7 @@
         <v>60.96</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -632,7 +632,7 @@
         <v>152.4</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -649,7 +649,7 @@
         <v>153.01</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -677,16 +677,16 @@
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D23"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="4" width="13" customWidth="1"/>
-    <col min="5" max="1025" width="10.54296875" customWidth="1"/>
+    <col min="5" max="1025" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -700,7 +700,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -711,10 +711,10 @@
         <v>140</v>
       </c>
       <c r="D2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -725,10 +725,10 @@
         <v>140</v>
       </c>
       <c r="D3">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -739,10 +739,10 @@
         <v>140</v>
       </c>
       <c r="D4">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -753,10 +753,10 @@
         <v>140</v>
       </c>
       <c r="D5">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -767,10 +767,10 @@
         <v>140</v>
       </c>
       <c r="D6">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -781,10 +781,10 @@
         <v>140</v>
       </c>
       <c r="D7">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -795,10 +795,10 @@
         <v>140</v>
       </c>
       <c r="D8">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -809,10 +809,10 @@
         <v>140</v>
       </c>
       <c r="D9">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -823,10 +823,10 @@
         <v>140</v>
       </c>
       <c r="D10">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+        <v>-60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -837,10 +837,10 @@
         <v>140</v>
       </c>
       <c r="D11">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+        <v>-60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -851,10 +851,10 @@
         <v>140</v>
       </c>
       <c r="D12">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+        <v>-60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -865,10 +865,10 @@
         <v>140</v>
       </c>
       <c r="D13">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+        <v>-60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -879,10 +879,10 @@
         <v>140</v>
       </c>
       <c r="D14">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>10</v>
       </c>
@@ -893,10 +893,10 @@
         <v>140</v>
       </c>
       <c r="D15">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>11</v>
       </c>
@@ -907,10 +907,10 @@
         <v>140</v>
       </c>
       <c r="D16">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>11</v>
       </c>
@@ -921,10 +921,10 @@
         <v>140</v>
       </c>
       <c r="D17">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>12</v>
       </c>
@@ -935,10 +935,10 @@
         <v>140</v>
       </c>
       <c r="D18">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>12</v>
       </c>
@@ -949,10 +949,10 @@
         <v>140</v>
       </c>
       <c r="D19">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+        <v>-48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>13</v>
       </c>
@@ -963,10 +963,10 @@
         <v>140</v>
       </c>
       <c r="D20">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>13</v>
       </c>
@@ -977,10 +977,10 @@
         <v>140</v>
       </c>
       <c r="D21">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>14</v>
       </c>
@@ -991,10 +991,10 @@
         <v>140</v>
       </c>
       <c r="D22">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+        <v>-60</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>14</v>
       </c>
@@ -1005,7 +1005,7 @@
         <v>140</v>
       </c>
       <c r="D23">
-        <v>30</v>
+        <v>-60</v>
       </c>
     </row>
   </sheetData>
@@ -1022,12 +1022,12 @@
       <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1025" width="10.54296875" customWidth="1"/>
+    <col min="1" max="1025" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1041,7 +1041,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -1055,7 +1055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>22</v>
       </c>
@@ -1069,7 +1069,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -1083,7 +1083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>23</v>
       </c>
@@ -1097,7 +1097,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -1111,7 +1111,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -1125,7 +1125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -1139,7 +1139,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -1153,7 +1153,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -1167,7 +1167,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>24</v>
       </c>
@@ -1181,7 +1181,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>25</v>
       </c>
@@ -1195,7 +1195,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>26</v>
       </c>
@@ -1209,7 +1209,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -1223,7 +1223,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>27</v>
       </c>
@@ -1237,7 +1237,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -1251,7 +1251,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>27</v>
       </c>
@@ -1265,7 +1265,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>27</v>
       </c>
@@ -1279,7 +1279,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>28</v>
       </c>
@@ -1293,7 +1293,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>14</v>
       </c>
